--- a/sumraw.xlsx
+++ b/sumraw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\PCM_RAW\PCMRawdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94731BFA-BDD5-4685-92B5-1ABEEDAE8234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EAE683-2E6C-4148-90F3-E9734A5F23B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5496" yWindow="1992" windowWidth="23040" windowHeight="13560" xr2:uid="{F3833993-8652-47DB-8976-15A8B93BF7B8}"/>
+    <workbookView xWindow="5050" yWindow="1040" windowWidth="23080" windowHeight="13580" xr2:uid="{F3833993-8652-47DB-8976-15A8B93BF7B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -473,7 +473,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
